--- a/Excel-XLSX/UN-MOR.xlsx
+++ b/Excel-XLSX/UN-MOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1283">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>w50DeJ</t>
+    <t>6dZaZo</t>
   </si>
   <si>
     <t>1951</t>
@@ -3768,18 +3768,27 @@
     <t>946</t>
   </si>
   <si>
-    <t>2335</t>
+    <t>2318</t>
   </si>
   <si>
     <t>947</t>
   </si>
   <si>
-    <t>1197</t>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
   </si>
   <si>
     <t>948</t>
   </si>
   <si>
+    <t>1402</t>
+  </si>
+  <si>
     <t>949</t>
   </si>
   <si>
@@ -3813,12 +3822,12 @@
     <t>959</t>
   </si>
   <si>
-    <t>1923</t>
-  </si>
-  <si>
     <t>960</t>
   </si>
   <si>
+    <t>1848</t>
+  </si>
+  <si>
     <t>961</t>
   </si>
   <si>
@@ -3828,12 +3837,15 @@
     <t>963</t>
   </si>
   <si>
-    <t>5455</t>
+    <t>1377</t>
   </si>
   <si>
     <t>965</t>
   </si>
   <si>
+    <t>5442</t>
+  </si>
+  <si>
     <t>966</t>
   </si>
   <si>
@@ -3841,6 +3853,18 @@
   </si>
   <si>
     <t>968</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>970</t>
   </si>
 </sst>
 </file>
@@ -4225,7 +4249,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V969"/>
+  <dimension ref="A1:V971"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -67242,10 +67266,10 @@
         <v>32</v>
       </c>
       <c r="N927" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="O927" s="2" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="P927" s="2" t="s">
         <v>34</v>
@@ -67310,10 +67334,10 @@
         <v>32</v>
       </c>
       <c r="N928" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="O928" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P928" s="2" t="s">
         <v>34</v>
@@ -67381,7 +67405,7 @@
         <v>45</v>
       </c>
       <c r="O929" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P929" s="2" t="s">
         <v>34</v>
@@ -67517,7 +67541,7 @@
         <v>34</v>
       </c>
       <c r="O931" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P931" s="2" t="s">
         <v>34</v>
@@ -67585,7 +67609,7 @@
         <v>34</v>
       </c>
       <c r="O932" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P932" s="2" t="s">
         <v>34</v>
@@ -67650,10 +67674,10 @@
         <v>32</v>
       </c>
       <c r="N933" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O933" s="2" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="P933" s="2" t="s">
         <v>34</v>
@@ -67718,10 +67742,10 @@
         <v>32</v>
       </c>
       <c r="N934" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="O934" s="2" t="s">
-        <v>948</v>
+        <v>1106</v>
       </c>
       <c r="P934" s="2" t="s">
         <v>34</v>
@@ -67789,7 +67813,7 @@
         <v>52</v>
       </c>
       <c r="O935" s="2" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="P935" s="2" t="s">
         <v>34</v>
@@ -67922,10 +67946,10 @@
         <v>32</v>
       </c>
       <c r="N937" s="2" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="O937" s="2" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="P937" s="2" t="s">
         <v>34</v>
@@ -67990,10 +68014,10 @@
         <v>32</v>
       </c>
       <c r="N938" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="O938" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P938" s="2" t="s">
         <v>34</v>
@@ -68058,10 +68082,10 @@
         <v>32</v>
       </c>
       <c r="N939" s="2" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="O939" s="2" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="P939" s="2" t="s">
         <v>34</v>
@@ -68126,10 +68150,10 @@
         <v>32</v>
       </c>
       <c r="N940" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="O940" s="2" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="P940" s="2" t="s">
         <v>34</v>
@@ -68194,10 +68218,10 @@
         <v>32</v>
       </c>
       <c r="N941" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="O941" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P941" s="2" t="s">
         <v>34</v>
@@ -68262,10 +68286,10 @@
         <v>32</v>
       </c>
       <c r="N942" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O942" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P942" s="2" t="s">
         <v>34</v>
@@ -68333,7 +68357,7 @@
         <v>34</v>
       </c>
       <c r="O943" s="2" t="s">
-        <v>363</v>
+        <v>295</v>
       </c>
       <c r="P943" s="2" t="s">
         <v>34</v>
@@ -68398,10 +68422,10 @@
         <v>32</v>
       </c>
       <c r="N944" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O944" s="2" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="P944" s="2" t="s">
         <v>34</v>
@@ -68469,7 +68493,7 @@
         <v>34</v>
       </c>
       <c r="O945" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P945" s="2" t="s">
         <v>34</v>
@@ -68537,7 +68561,7 @@
         <v>34</v>
       </c>
       <c r="O946" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="P946" s="2" t="s">
         <v>34</v>
@@ -68602,7 +68626,7 @@
         <v>32</v>
       </c>
       <c r="N947" s="2" t="s">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="O947" s="2" t="s">
         <v>1250</v>
@@ -68646,16 +68670,16 @@
         <v>1230</v>
       </c>
       <c r="F948" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="G948" s="1" t="s">
-        <v>455</v>
+        <v>1252</v>
       </c>
       <c r="H948" s="1" t="s">
-        <v>456</v>
+        <v>1253</v>
       </c>
       <c r="I948" s="1" t="s">
-        <v>457</v>
+        <v>1254</v>
       </c>
       <c r="J948" s="2" t="s">
         <v>29</v>
@@ -68670,10 +68694,10 @@
         <v>32</v>
       </c>
       <c r="N948" s="2" t="s">
-        <v>474</v>
+        <v>34</v>
       </c>
       <c r="O948" s="2" t="s">
-        <v>1252</v>
+        <v>45</v>
       </c>
       <c r="P948" s="2" t="s">
         <v>34</v>
@@ -68708,22 +68732,22 @@
         <v>22</v>
       </c>
       <c r="D949" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="E949" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F949" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G949" s="1" t="s">
-        <v>219</v>
+        <v>455</v>
       </c>
       <c r="H949" s="1" t="s">
-        <v>220</v>
+        <v>456</v>
       </c>
       <c r="I949" s="1" t="s">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="J949" s="2" t="s">
         <v>29</v>
@@ -68738,10 +68762,10 @@
         <v>32</v>
       </c>
       <c r="N949" s="2" t="s">
-        <v>222</v>
+        <v>435</v>
       </c>
       <c r="O949" s="2" t="s">
-        <v>45</v>
+        <v>1256</v>
       </c>
       <c r="P949" s="2" t="s">
         <v>34</v>
@@ -68776,22 +68800,22 @@
         <v>22</v>
       </c>
       <c r="D950" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="E950" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F950" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G950" s="1" t="s">
-        <v>1064</v>
+        <v>219</v>
       </c>
       <c r="H950" s="1" t="s">
-        <v>1065</v>
+        <v>220</v>
       </c>
       <c r="I950" s="1" t="s">
-        <v>1065</v>
+        <v>220</v>
       </c>
       <c r="J950" s="2" t="s">
         <v>29</v>
@@ -68806,7 +68830,7 @@
         <v>32</v>
       </c>
       <c r="N950" s="2" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="O950" s="2" t="s">
         <v>45</v>
@@ -68844,22 +68868,22 @@
         <v>22</v>
       </c>
       <c r="D951" s="2" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="E951" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F951" s="2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G951" s="1" t="s">
-        <v>223</v>
+        <v>1064</v>
       </c>
       <c r="H951" s="1" t="s">
-        <v>224</v>
+        <v>1065</v>
       </c>
       <c r="I951" s="1" t="s">
-        <v>224</v>
+        <v>1065</v>
       </c>
       <c r="J951" s="2" t="s">
         <v>29</v>
@@ -68877,7 +68901,7 @@
         <v>34</v>
       </c>
       <c r="O951" s="2" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="P951" s="2" t="s">
         <v>34</v>
@@ -68912,22 +68936,22 @@
         <v>22</v>
       </c>
       <c r="D952" s="2" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="E952" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F952" s="2" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="G952" s="1" t="s">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="H952" s="1" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="I952" s="1" t="s">
-        <v>325</v>
+        <v>224</v>
       </c>
       <c r="J952" s="2" t="s">
         <v>29</v>
@@ -68942,10 +68966,10 @@
         <v>32</v>
       </c>
       <c r="N952" s="2" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="O952" s="2" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="P952" s="2" t="s">
         <v>34</v>
@@ -68980,22 +69004,22 @@
         <v>22</v>
       </c>
       <c r="D953" s="2" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="E953" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F953" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G953" s="1" t="s">
-        <v>608</v>
+        <v>324</v>
       </c>
       <c r="H953" s="1" t="s">
-        <v>609</v>
+        <v>325</v>
       </c>
       <c r="I953" s="1" t="s">
-        <v>610</v>
+        <v>325</v>
       </c>
       <c r="J953" s="2" t="s">
         <v>29</v>
@@ -69010,10 +69034,10 @@
         <v>32</v>
       </c>
       <c r="N953" s="2" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="O953" s="2" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="P953" s="2" t="s">
         <v>34</v>
@@ -69048,22 +69072,22 @@
         <v>22</v>
       </c>
       <c r="D954" s="2" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="E954" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F954" s="2" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="G954" s="1" t="s">
-        <v>329</v>
+        <v>608</v>
       </c>
       <c r="H954" s="1" t="s">
-        <v>330</v>
+        <v>609</v>
       </c>
       <c r="I954" s="1" t="s">
-        <v>331</v>
+        <v>610</v>
       </c>
       <c r="J954" s="2" t="s">
         <v>29</v>
@@ -69081,7 +69105,7 @@
         <v>45</v>
       </c>
       <c r="O954" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="P954" s="2" t="s">
         <v>34</v>
@@ -69116,22 +69140,22 @@
         <v>22</v>
       </c>
       <c r="D955" s="2" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="E955" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F955" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="G955" s="1" t="s">
-        <v>567</v>
+        <v>329</v>
       </c>
       <c r="H955" s="1" t="s">
-        <v>568</v>
+        <v>330</v>
       </c>
       <c r="I955" s="1" t="s">
-        <v>568</v>
+        <v>331</v>
       </c>
       <c r="J955" s="2" t="s">
         <v>29</v>
@@ -69146,10 +69170,10 @@
         <v>32</v>
       </c>
       <c r="N955" s="2" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="O955" s="2" t="s">
-        <v>943</v>
+        <v>45</v>
       </c>
       <c r="P955" s="2" t="s">
         <v>34</v>
@@ -69184,22 +69208,22 @@
         <v>22</v>
       </c>
       <c r="D956" s="2" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="E956" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F956" s="2" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="G956" s="1" t="s">
-        <v>413</v>
+        <v>567</v>
       </c>
       <c r="H956" s="1" t="s">
-        <v>414</v>
+        <v>568</v>
       </c>
       <c r="I956" s="1" t="s">
-        <v>415</v>
+        <v>568</v>
       </c>
       <c r="J956" s="2" t="s">
         <v>29</v>
@@ -69214,10 +69238,10 @@
         <v>32</v>
       </c>
       <c r="N956" s="2" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="O956" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="P956" s="2" t="s">
         <v>34</v>
@@ -69252,22 +69276,22 @@
         <v>22</v>
       </c>
       <c r="D957" s="2" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="E957" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F957" s="2" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="G957" s="1" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
       <c r="H957" s="1" t="s">
-        <v>335</v>
+        <v>414</v>
       </c>
       <c r="I957" s="1" t="s">
-        <v>336</v>
+        <v>415</v>
       </c>
       <c r="J957" s="2" t="s">
         <v>29</v>
@@ -69282,10 +69306,10 @@
         <v>32</v>
       </c>
       <c r="N957" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O957" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="O957" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="P957" s="2" t="s">
         <v>34</v>
@@ -69320,22 +69344,22 @@
         <v>22</v>
       </c>
       <c r="D958" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="E958" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F958" s="2" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="G958" s="1" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="H958" s="1" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="I958" s="1" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="J958" s="2" t="s">
         <v>29</v>
@@ -69350,10 +69374,10 @@
         <v>32</v>
       </c>
       <c r="N958" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="O958" s="2" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="P958" s="2" t="s">
         <v>34</v>
@@ -69388,22 +69412,22 @@
         <v>22</v>
       </c>
       <c r="D959" s="2" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="E959" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F959" s="2" t="s">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="G959" s="1" t="s">
-        <v>93</v>
+        <v>418</v>
       </c>
       <c r="H959" s="1" t="s">
-        <v>94</v>
+        <v>419</v>
       </c>
       <c r="I959" s="1" t="s">
-        <v>94</v>
+        <v>419</v>
       </c>
       <c r="J959" s="2" t="s">
         <v>29</v>
@@ -69421,7 +69445,7 @@
         <v>34</v>
       </c>
       <c r="O959" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="P959" s="2" t="s">
         <v>34</v>
@@ -69456,22 +69480,22 @@
         <v>22</v>
       </c>
       <c r="D960" s="2" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="E960" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F960" s="2" t="s">
-        <v>399</v>
+        <v>92</v>
       </c>
       <c r="G960" s="1" t="s">
-        <v>618</v>
+        <v>93</v>
       </c>
       <c r="H960" s="1" t="s">
-        <v>619</v>
+        <v>94</v>
       </c>
       <c r="I960" s="1" t="s">
-        <v>619</v>
+        <v>94</v>
       </c>
       <c r="J960" s="2" t="s">
         <v>29</v>
@@ -69486,10 +69510,10 @@
         <v>32</v>
       </c>
       <c r="N960" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="O960" s="2" t="s">
-        <v>1265</v>
+        <v>45</v>
       </c>
       <c r="P960" s="2" t="s">
         <v>34</v>
@@ -69524,22 +69548,22 @@
         <v>22</v>
       </c>
       <c r="D961" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E961" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F961" s="2" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="G961" s="1" t="s">
-        <v>243</v>
+        <v>618</v>
       </c>
       <c r="H961" s="1" t="s">
-        <v>244</v>
+        <v>619</v>
       </c>
       <c r="I961" s="1" t="s">
-        <v>244</v>
+        <v>619</v>
       </c>
       <c r="J961" s="2" t="s">
         <v>29</v>
@@ -69554,10 +69578,10 @@
         <v>32</v>
       </c>
       <c r="N961" s="2" t="s">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="O961" s="2" t="s">
-        <v>153</v>
+        <v>1269</v>
       </c>
       <c r="P961" s="2" t="s">
         <v>34</v>
@@ -69592,22 +69616,22 @@
         <v>22</v>
       </c>
       <c r="D962" s="2" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="E962" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F962" s="2" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="G962" s="1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H962" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="I962" s="1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="J962" s="2" t="s">
         <v>29</v>
@@ -69622,10 +69646,10 @@
         <v>32</v>
       </c>
       <c r="N962" s="2" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="O962" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P962" s="2" t="s">
         <v>34</v>
@@ -69660,22 +69684,22 @@
         <v>22</v>
       </c>
       <c r="D963" s="2" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="E963" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F963" s="2" t="s">
-        <v>412</v>
+        <v>225</v>
       </c>
       <c r="G963" s="1" t="s">
-        <v>988</v>
+        <v>226</v>
       </c>
       <c r="H963" s="1" t="s">
-        <v>989</v>
+        <v>227</v>
       </c>
       <c r="I963" s="1" t="s">
-        <v>989</v>
+        <v>227</v>
       </c>
       <c r="J963" s="2" t="s">
         <v>29</v>
@@ -69690,10 +69714,10 @@
         <v>32</v>
       </c>
       <c r="N963" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="O963" s="2" t="s">
-        <v>461</v>
+        <v>149</v>
       </c>
       <c r="P963" s="2" t="s">
         <v>34</v>
@@ -69728,22 +69752,22 @@
         <v>22</v>
       </c>
       <c r="D964" s="2" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E964" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F964" s="2" t="s">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="G964" s="1" t="s">
-        <v>230</v>
+        <v>988</v>
       </c>
       <c r="H964" s="1" t="s">
-        <v>231</v>
+        <v>989</v>
       </c>
       <c r="I964" s="1" t="s">
-        <v>232</v>
+        <v>989</v>
       </c>
       <c r="J964" s="2" t="s">
         <v>29</v>
@@ -69758,10 +69782,10 @@
         <v>32</v>
       </c>
       <c r="N964" s="2" t="s">
-        <v>662</v>
+        <v>121</v>
       </c>
       <c r="O964" s="2" t="s">
-        <v>731</v>
+        <v>481</v>
       </c>
       <c r="P964" s="2" t="s">
         <v>34</v>
@@ -69802,16 +69826,16 @@
         <v>1230</v>
       </c>
       <c r="F965" s="2" t="s">
-        <v>375</v>
+        <v>229</v>
       </c>
       <c r="G965" s="1" t="s">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="H965" s="1" t="s">
-        <v>377</v>
+        <v>231</v>
       </c>
       <c r="I965" s="1" t="s">
-        <v>377</v>
+        <v>232</v>
       </c>
       <c r="J965" s="2" t="s">
         <v>29</v>
@@ -69826,10 +69850,10 @@
         <v>32</v>
       </c>
       <c r="N965" s="2" t="s">
-        <v>1270</v>
+        <v>709</v>
       </c>
       <c r="O965" s="2" t="s">
-        <v>48</v>
+        <v>1273</v>
       </c>
       <c r="P965" s="2" t="s">
         <v>34</v>
@@ -69864,22 +69888,22 @@
         <v>22</v>
       </c>
       <c r="D966" s="2" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="E966" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F966" s="2" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="G966" s="1" t="s">
-        <v>579</v>
+        <v>376</v>
       </c>
       <c r="H966" s="1" t="s">
-        <v>580</v>
+        <v>377</v>
       </c>
       <c r="I966" s="1" t="s">
-        <v>581</v>
+        <v>377</v>
       </c>
       <c r="J966" s="2" t="s">
         <v>29</v>
@@ -69894,7 +69918,7 @@
         <v>32</v>
       </c>
       <c r="N966" s="2" t="s">
-        <v>34</v>
+        <v>1275</v>
       </c>
       <c r="O966" s="2" t="s">
         <v>48</v>
@@ -69932,22 +69956,22 @@
         <v>22</v>
       </c>
       <c r="D967" s="2" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="E967" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F967" s="2" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="G967" s="1" t="s">
-        <v>380</v>
+        <v>579</v>
       </c>
       <c r="H967" s="1" t="s">
-        <v>381</v>
+        <v>580</v>
       </c>
       <c r="I967" s="1" t="s">
-        <v>381</v>
+        <v>581</v>
       </c>
       <c r="J967" s="2" t="s">
         <v>29</v>
@@ -69962,10 +69986,10 @@
         <v>32</v>
       </c>
       <c r="N967" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O967" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="P967" s="2" t="s">
         <v>34</v>
@@ -70000,22 +70024,22 @@
         <v>22</v>
       </c>
       <c r="D968" s="2" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="E968" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F968" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G968" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H968" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I968" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J968" s="2" t="s">
         <v>29</v>
@@ -70030,10 +70054,10 @@
         <v>32</v>
       </c>
       <c r="N968" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O968" s="2" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="P968" s="2" t="s">
         <v>34</v>
@@ -70068,60 +70092,196 @@
         <v>22</v>
       </c>
       <c r="D969" s="2" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="E969" s="2" t="s">
         <v>1230</v>
       </c>
       <c r="F969" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G969" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H969" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I969" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J969" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K969" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L969" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M969" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N969" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O969" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P969" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q969" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R969" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S969" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T969" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U969" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V969" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B970" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C970" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E970" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F970" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G970" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H970" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I970" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J970" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K970" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L970" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M970" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N970" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O970" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P970" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q970" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R970" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S970" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T970" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U970" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V970" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B971" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C971" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E971" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F971" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G969" s="1" t="s">
+      <c r="G971" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="H969" s="1" t="s">
+      <c r="H971" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="I969" s="1" t="s">
+      <c r="I971" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J969" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K969" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L969" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M969" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N969" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O969" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="P969" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q969" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R969" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S969" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T969" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U969" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V969" s="2" t="s">
+      <c r="J971" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K971" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L971" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M971" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N971" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O971" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="P971" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q971" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R971" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S971" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T971" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U971" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V971" s="2" t="s">
         <v>34</v>
       </c>
     </row>
